--- a/cmd/timetable/data/Команды.xlsx
+++ b/cmd/timetable/data/Команды.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C795B9-B405-4369-B7E0-490B99BB78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -28,29 +40,221 @@
     <t>ID дивизиона</t>
   </si>
   <si>
+    <t>GOLDEN BOY 2010-2011</t>
+  </si>
+  <si>
+    <t>GOLDEN BOY 2012А</t>
+  </si>
+  <si>
     <t>GOLDEN BOY 2015</t>
   </si>
   <si>
+    <t>PROFIBALL 2010-2011</t>
+  </si>
+  <si>
+    <t>PROFIBALL 2013В</t>
+  </si>
+  <si>
+    <t>SAF FOOTBALL 2009-2010</t>
+  </si>
+  <si>
+    <t>SAF FOOTBALL 2012А</t>
+  </si>
+  <si>
+    <t>SAF FOOTBALL 2014В</t>
+  </si>
+  <si>
     <t>АВАНГАРД ИЛЬИНСКИЙ 2015</t>
   </si>
   <si>
+    <t>АВИАТОР 2009-2010</t>
+  </si>
+  <si>
     <t>АВИАТОР 2015</t>
   </si>
   <si>
+    <t>АВИАТОР-1 2010-2011</t>
+  </si>
+  <si>
+    <t>АВИАТОР-2 2010-2011</t>
+  </si>
+  <si>
     <t>АДЕЙ 2015</t>
   </si>
   <si>
+    <t>АЛЬФА 2016</t>
+  </si>
+  <si>
+    <t>АЛЬЯНС ТОМИЛИНО 2014В</t>
+  </si>
+  <si>
+    <t>АРСЕНАЛ РЕУТОВ 2011В</t>
+  </si>
+  <si>
+    <t>АУФ 2007-2008</t>
+  </si>
+  <si>
+    <t>ВОСТОК 2013A</t>
+  </si>
+  <si>
+    <t>ВОСТОК 2013В</t>
+  </si>
+  <si>
+    <t>ВОСТОК БЕЛЫЕ 2012А</t>
+  </si>
+  <si>
+    <t>ВОСТОК СИНИЕ 2012А</t>
+  </si>
+  <si>
+    <t>ГЕПАРД 2013В</t>
+  </si>
+  <si>
+    <t>ГЕПАРД 2014В</t>
+  </si>
+  <si>
+    <t>ДИНАМИКА 2013A</t>
+  </si>
+  <si>
+    <t>ДРУЖБА 2013A</t>
+  </si>
+  <si>
+    <t>ДЮФА ПФК ЦСКА 2016</t>
+  </si>
+  <si>
+    <t>ДЮФА ПФК ЦСКА 2010-2011</t>
+  </si>
+  <si>
+    <t>ДЮФА ПФК ЦСКА 2012В</t>
+  </si>
+  <si>
+    <t>ДЮФА ПФК ЦСКА 2013A</t>
+  </si>
+  <si>
+    <t>ИЗМАЙЛОВО 2010-2011</t>
+  </si>
+  <si>
+    <t>ИЗМАЙЛОВО 2013A</t>
+  </si>
+  <si>
+    <t>КОТЕЛЬНИКИ 2013A</t>
+  </si>
+  <si>
+    <t>ЛЕГИОН-1 2012В</t>
+  </si>
+  <si>
+    <t>ЛЕГИОН-2 2012В</t>
+  </si>
+  <si>
+    <t>ЛИДЕР 1420 2007-2008</t>
+  </si>
+  <si>
+    <t>ЛИДЕР 1420 2011В</t>
+  </si>
+  <si>
+    <t>ЛИДЕР 1420 2014В</t>
+  </si>
+  <si>
     <t>ЛИДЕР 1420 2015</t>
   </si>
   <si>
+    <t>МЕГАФУТБОЛ 2013A</t>
+  </si>
+  <si>
+    <t>МЕТЕОР ЖУК 2012А</t>
+  </si>
+  <si>
+    <t>МЕТЕОР ТАГАНКА 2009-2010</t>
+  </si>
+  <si>
+    <t>МЕТРОГОРОДОК 2010-2011</t>
+  </si>
+  <si>
+    <t>МЕТРОГОРОДОК 2016</t>
+  </si>
+  <si>
+    <t>МЕТРОГОРОДОК 2012В</t>
+  </si>
+  <si>
+    <t>МЕТРОГОРОДОК 2013A</t>
+  </si>
+  <si>
+    <t>МУСТАНГ 2007-2008</t>
+  </si>
+  <si>
+    <t>НЕКРАСОВКА 2010-2011</t>
+  </si>
+  <si>
+    <t>НЕКРАСОВКА 2013В</t>
+  </si>
+  <si>
+    <t>НЕКРАСОВКА 2007-2008</t>
+  </si>
+  <si>
+    <t>НЕКРАСОВКА 2009-2010</t>
+  </si>
+  <si>
+    <t>ОЛИМП ВИДНОЕ 2013В</t>
+  </si>
+  <si>
+    <t>ОЛИМП ВИДНОЕ 2013A</t>
+  </si>
+  <si>
+    <t>ОЛИМПИЯ КИДС 2013A</t>
+  </si>
+  <si>
+    <t>ПЕРСПЕКТИВА 777 2015</t>
+  </si>
+  <si>
+    <t>ПЕРСПЕКТИВА МОСКВА 2010-2011</t>
+  </si>
+  <si>
+    <t>РОТОР НЕКРАСОВКА 2013В</t>
+  </si>
+  <si>
+    <t>РОТОР НЕКРАСОВКА 2014В</t>
+  </si>
+  <si>
     <t>РОТОР НЕКРАСОВКА 2015</t>
+  </si>
+  <si>
+    <t>СПАРТАК ГЕРАКЛИОН 2011В</t>
+  </si>
+  <si>
+    <t>СПАРТАК СОКОЛЬНИКИ 2007-2008</t>
+  </si>
+  <si>
+    <t>ТОРПЕДО ЛЮБ 2013A</t>
+  </si>
+  <si>
+    <t>ФЕНИКС 2009-2010</t>
+  </si>
+  <si>
+    <t>ЧЕМПИОН БАЛАШИХА 2007-2008</t>
+  </si>
+  <si>
+    <t>ЧЕМПИОНИКА 2013В</t>
+  </si>
+  <si>
+    <t>ШАНС 2009-2010</t>
+  </si>
+  <si>
+    <t>ШАНС 2010-2011</t>
+  </si>
+  <si>
+    <t>ШАНС 2014В</t>
+  </si>
+  <si>
+    <t>ЮНИОР ЮГ ПОДОЛЬСК 2011В</t>
+  </si>
+  <si>
+    <t>ЮНИОР ЮГ ПОДОЛЬСК 2013В</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,128 +286,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
-  <themeElements>
-    <clrScheme name="Office">
-      <dk1>
-        <sysClr val="windowText" lastClr="000000"/>
-      </dk1>
-      <lt1>
-        <sysClr val="window" lastClr="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="44546A"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="E7E6E6"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="5B9BD5"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="ED7D31"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="A5A5A5"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="FFC000"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4472C4"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="70AD47"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0563C1"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="954F72"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Office">
-      <majorFont>
-        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック Light"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线 Light"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Times New Roman"/>
-        <font script="Hebr" typeface="Times New Roman"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="MoolBoran"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Times New Roman"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Calibri" panose="020F0502020204030204"/>
-        <ea typeface=""/>
-        <cs typeface=""/>
-        <font script="Jpan" typeface="游ゴシック"/>
-        <font script="Hang" typeface="맑은 고딕"/>
-        <font script="Hans" typeface="等线"/>
-        <font script="Hant" typeface="新細明體"/>
-        <font script="Arab" typeface="Arial"/>
-        <font script="Hebr" typeface="Arial"/>
-        <font script="Thai" typeface="Tahoma"/>
-        <font script="Ethi" typeface="Nyala"/>
-        <font script="Beng" typeface="Vrinda"/>
-        <font script="Gujr" typeface="Shruti"/>
-        <font script="Khmr" typeface="DaunPenh"/>
-        <font script="Knda" typeface="Tunga"/>
-        <font script="Guru" typeface="Raavi"/>
-        <font script="Cans" typeface="Euphemia"/>
-        <font script="Cher" typeface="Plantagenet Cherokee"/>
-        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <font script="Tibt" typeface="Microsoft Himalaya"/>
-        <font script="Thaa" typeface="MV Boli"/>
-        <font script="Deva" typeface="Mangal"/>
-        <font script="Telu" typeface="Gautami"/>
-        <font script="Taml" typeface="Latha"/>
-        <font script="Syrc" typeface="Estrangelo Edessa"/>
-        <font script="Orya" typeface="Kalinga"/>
-        <font script="Mlym" typeface="Kartika"/>
-        <font script="Laoo" typeface="DokChampa"/>
-        <font script="Sinh" typeface="Iskoola Pota"/>
-        <font script="Mong" typeface="Mongolian Baiti"/>
-        <font script="Viet" typeface="Arial"/>
-        <font script="Uigh" typeface="Microsoft Uighur"/>
-        <font script="Geor" typeface="Sylfaen"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -259,8 +471,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -282,8 +494,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -299,8 +511,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -337,23 +549,28 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,9 +584,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -378,79 +595,980 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="D7">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
     </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+    <sortCondition ref="C2:C71"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cmd/timetable/data/Команды.xlsx
+++ b/cmd/timetable/data/Команды.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C795B9-B405-4369-B7E0-490B99BB78A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A081BF5D-322A-44CE-8E27-CE1CA05F7C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="22485" windowHeight="20085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,15 +562,12 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -598,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -606,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,13 +617,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -634,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -648,13 +645,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -662,13 +659,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -676,13 +673,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -690,13 +687,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -704,13 +701,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -718,13 +715,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -732,13 +729,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -746,13 +743,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -760,13 +757,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -774,13 +771,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -788,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -802,13 +799,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -816,13 +813,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -830,13 +827,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -844,13 +841,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -858,13 +855,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -872,13 +869,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -886,13 +883,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -900,13 +897,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -914,13 +911,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -928,13 +925,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -942,13 +939,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -956,13 +953,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -970,13 +967,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -984,13 +981,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -998,13 +995,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1012,13 +1009,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1026,13 +1023,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1040,13 +1037,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1054,13 +1051,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1068,13 +1065,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1082,13 +1079,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1096,13 +1093,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1110,13 +1107,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1124,13 +1121,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1138,13 +1135,13 @@
         <v>43</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1152,13 +1149,13 @@
         <v>44</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1166,13 +1163,13 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1180,13 +1177,13 @@
         <v>46</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1194,13 +1191,13 @@
         <v>47</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D45">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1208,13 +1205,13 @@
         <v>48</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1222,13 +1219,13 @@
         <v>49</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1236,13 +1233,13 @@
         <v>50</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1250,13 +1247,13 @@
         <v>51</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1264,13 +1261,13 @@
         <v>52</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1278,13 +1275,13 @@
         <v>53</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1292,13 +1289,13 @@
         <v>54</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1306,13 +1303,13 @@
         <v>55</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1320,13 +1317,13 @@
         <v>56</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1334,13 +1331,13 @@
         <v>57</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1348,13 +1345,13 @@
         <v>58</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1362,13 +1359,13 @@
         <v>59</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1376,13 +1373,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1390,13 +1387,13 @@
         <v>61</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D59">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1404,13 +1401,13 @@
         <v>62</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1418,13 +1415,13 @@
         <v>63</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1432,13 +1429,13 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1446,13 +1443,13 @@
         <v>65</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1460,13 +1457,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D64">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1474,13 +1471,13 @@
         <v>67</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1488,13 +1485,13 @@
         <v>68</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1502,13 +1499,13 @@
         <v>69</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D67">
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1516,13 +1513,13 @@
         <v>70</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1530,13 +1527,13 @@
         <v>71</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D69">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1544,13 +1541,13 @@
         <v>72</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1558,16 +1555,13 @@
         <v>73</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D71">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
-    <sortCondition ref="C2:C71"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
